--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-07 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-07 日常维护.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="12780"/>
+    <workbookView windowWidth="28080" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -92,14 +92,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,8 +121,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,7 +153,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,17 +177,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,54 +200,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,187 +250,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,11 +444,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,17 +498,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,32 +533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -549,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,133 +561,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -767,19 +767,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1029970</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95885</xdr:rowOff>
+      <xdr:colOff>1468120</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="1530608088(1)"/>
+        <xdr:cNvPr id="3" name="图片 2" descr="1530608125(1)"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -792,8 +792,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1676400" y="971550"/>
-          <a:ext cx="6849745" cy="4153535"/>
+          <a:off x="1809750" y="6219825"/>
+          <a:ext cx="7154545" cy="2772410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -805,19 +805,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1468120</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>19685</xdr:rowOff>
+      <xdr:colOff>1134110</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="1530608125(1)"/>
+        <xdr:cNvPr id="5" name="图片 4" descr="1530608897(1)"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -830,8 +830,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1809750" y="5705475"/>
-          <a:ext cx="7154545" cy="2772410"/>
+          <a:off x="1828800" y="895350"/>
+          <a:ext cx="6801485" cy="4572635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -843,19 +843,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1410970</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>86360</xdr:rowOff>
+      <xdr:colOff>1525270</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="1530608168(1)"/>
+        <xdr:cNvPr id="6" name="图片 5" descr="1530608938(1)"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -868,8 +868,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1809750" y="8963025"/>
-          <a:ext cx="7097395" cy="2667635"/>
+          <a:off x="1924050" y="9477375"/>
+          <a:ext cx="7097395" cy="4420235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1139,12 +1139,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1200,37 +1200,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" t="s">
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
         <v>12</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C33" t="s">
         <v>13</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E33" t="s">
         <v>10</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
-      <c r="B49" t="s">
+    <row r="52" spans="2:6">
+      <c r="B52" t="s">
         <v>14</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C52" t="s">
         <v>15</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D52" t="s">
         <v>9</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E52" t="s">
         <v>10</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F52" t="s">
         <v>11</v>
       </c>
     </row>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-07 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-07 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>时间</t>
   </si>
@@ -62,6 +62,13 @@
   </si>
   <si>
     <t>吕海琴</t>
+  </si>
+  <si>
+    <t>1、妈妈专区 - 妈妈营养品 下所有的三级分类  包含  妈妈营养品       以及分类下所有的商品下架
+奶粉辅食 - 营养食品  下所有的三级分类  包含 营养食品              以及分类下所有的商品下架</t>
+  </si>
+  <si>
+    <t>刘静/朱伟</t>
   </si>
 </sst>
 </file>
@@ -70,9 +77,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -214,6 +221,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -223,13 +237,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +257,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -268,12 +287,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -298,31 +341,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,19 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,6 +419,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,61 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,16 +568,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,116 +589,116 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,6 +707,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -870,6 +880,44 @@
         <a:xfrm>
           <a:off x="1924050" y="9477375"/>
           <a:ext cx="7097395" cy="4420235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1296670</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="1530853205(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914525" y="15173325"/>
+          <a:ext cx="6878320" cy="4610735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1139,12 +1187,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D87:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1234,6 +1282,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="82" customFormat="1" ht="54" spans="1:6">
+      <c r="A82" s="2">
+        <v>43287</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-07 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-07 日常维护.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12780"/>
+    <workbookView windowWidth="28695" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>时间</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>刘静/朱伟</t>
+  </si>
+  <si>
+    <t>1、PC站点打不开、打开缓慢</t>
   </si>
 </sst>
 </file>
@@ -77,9 +80,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -918,6 +921,44 @@
         <a:xfrm>
           <a:off x="1914525" y="15173325"/>
           <a:ext cx="6878320" cy="4610735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1668145</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="1531098414(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="20650200"/>
+          <a:ext cx="7364095" cy="4258310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1187,12 +1228,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D87:D90"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113:F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1302,6 +1343,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-07 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-07 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>时间</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>1、PC站点打不开、打开缓慢</t>
+  </si>
+  <si>
+    <t>2、近1年内购买过诺优能，爱他美奶粉，但近1个月内未购买过的消费者</t>
+  </si>
+  <si>
+    <t>朱伟</t>
+  </si>
+  <si>
+    <t>3、海涛，麻烦帮我导一份现有上海地区的活跃客户（最近半年有购买行为的）清单，包含用户姓名、宝宝年龄、联系方式（电话及家庭地址）、在哪个区。我们铺线下店需要看一下比较合适的位置。</t>
+  </si>
+  <si>
+    <t>茅晓冬</t>
   </si>
 </sst>
 </file>
@@ -80,8 +92,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -108,6 +120,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -131,16 +202,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -149,21 +220,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,51 +242,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -260,6 +272,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,19 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,72 +417,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +463,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,6 +501,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,41 +557,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -559,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,137 +583,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +722,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -959,6 +974,82 @@
         <a:xfrm>
           <a:off x="1800225" y="20650200"/>
           <a:ext cx="7364095" cy="4258310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2058670</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="1531128600(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914525" y="25450800"/>
+          <a:ext cx="7640320" cy="4944110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1210945</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="1531128636(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="31270575"/>
+          <a:ext cx="6849745" cy="4496435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1228,12 +1319,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C113" sqref="C113:F113"/>
+      <selection pane="bottomLeft" activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1363,6 +1454,40 @@
         <v>11</v>
       </c>
     </row>
+    <row r="142" spans="2:6">
+      <c r="B142" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" ht="40.5" spans="2:6">
+      <c r="B174" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C174" t="s">
+        <v>22</v>
+      </c>
+      <c r="D174" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-07 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-07 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>时间</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>茅晓冬</t>
+  </si>
+  <si>
+    <t>1、分时段价格手动审核</t>
   </si>
 </sst>
 </file>
@@ -92,9 +95,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -120,65 +123,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -202,6 +146,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,19 +224,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,187 +275,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,21 +466,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,26 +489,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +525,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -571,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,137 +586,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,9 +725,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1058,6 +1058,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1915795</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="1531198106(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="36404550"/>
+          <a:ext cx="7640320" cy="3362960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1319,12 +1357,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C174" sqref="C174"/>
+      <selection pane="bottomLeft" activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1472,7 +1510,7 @@
       </c>
     </row>
     <row r="174" ht="40.5" spans="2:6">
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C174" t="s">
@@ -1485,6 +1523,26 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" customFormat="1" spans="1:6">
+      <c r="A204" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B204" t="s">
+        <v>23</v>
+      </c>
+      <c r="C204" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" t="s">
+        <v>10</v>
+      </c>
+      <c r="F204" t="s">
         <v>11</v>
       </c>
     </row>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-07 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-07 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>时间</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>1、分时段价格手动审核</t>
+  </si>
+  <si>
+    <t>2、短信余额报警阀值调整为：500</t>
   </si>
 </sst>
 </file>
@@ -94,10 +97,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -125,6 +128,113 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -146,119 +256,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -275,6 +278,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -299,163 +452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,26 +472,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,6 +498,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,17 +546,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,133 +589,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1096,6 +1099,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5820410</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="企业微信截图_15312169847923"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1952625" y="40386000"/>
+          <a:ext cx="5496560" cy="4448175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1357,12 +1398,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:G227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C204" sqref="C204"/>
+      <selection pane="bottomLeft" activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1546,6 +1587,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="227" spans="2:6">
+      <c r="B227" t="s">
+        <v>24</v>
+      </c>
+      <c r="C227" t="s">
+        <v>20</v>
+      </c>
+      <c r="D227" t="s">
+        <v>9</v>
+      </c>
+      <c r="E227" t="s">
+        <v>10</v>
+      </c>
+      <c r="F227" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-07 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-07 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>时间</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>2、短信余额报警阀值调整为：500</t>
+  </si>
+  <si>
+    <t>1、拉取徐汇区会员订单数据</t>
   </si>
 </sst>
 </file>
@@ -98,8 +101,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -128,7 +131,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,30 +251,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -278,6 +281,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -297,168 +462,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,17 +475,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,15 +510,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,17 +549,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,145 +580,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,6 +1140,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1649095</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="1531291570(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="45462825"/>
+          <a:ext cx="7440295" cy="7383145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1398,12 +1439,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G227"/>
+  <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B227" sqref="B227"/>
+      <selection pane="bottomLeft" activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1604,6 +1645,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="2">
+        <v>43292</v>
+      </c>
+      <c r="B257" t="s">
+        <v>25</v>
+      </c>
+      <c r="C257" t="s">
+        <v>20</v>
+      </c>
+      <c r="D257" t="s">
+        <v>9</v>
+      </c>
+      <c r="E257" t="s">
+        <v>10</v>
+      </c>
+      <c r="F257" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
